--- a/编译原理作业/运行时间.xlsx
+++ b/编译原理作业/运行时间.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Compilation-principle\编译原理作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F591D1-D581-4CDA-ACE6-F766FC360DBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1AFC97-B523-4741-B10D-080A3163C9C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16368" windowHeight="6048" xr2:uid="{CAEEDA0A-0865-4B8C-9EB7-840017055F6B}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -612,6 +612,12 @@
       <c r="H5">
         <v>238062</v>
       </c>
+      <c r="I5">
+        <v>22965</v>
+      </c>
+      <c r="J5">
+        <v>226828</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
